--- a/Code/Results/Cases/Case_3_250/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_250/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.150928057813786</v>
+        <v>0.647781071271595</v>
       </c>
       <c r="C2">
-        <v>0.1438941665170823</v>
+        <v>0.2467209802383792</v>
       </c>
       <c r="D2">
-        <v>0.1407389478679164</v>
+        <v>0.2069910366683843</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6863283588074651</v>
+        <v>1.524588704530693</v>
       </c>
       <c r="G2">
-        <v>0.4093960257733542</v>
+        <v>0.8672303508589039</v>
       </c>
       <c r="H2">
-        <v>0.3662136925915433</v>
+        <v>0.9434404649970816</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09369988844308352</v>
+        <v>0.2369217653543636</v>
       </c>
       <c r="K2">
-        <v>0.9312999374112962</v>
+        <v>0.3152905831755959</v>
       </c>
       <c r="L2">
-        <v>0.2488456055561699</v>
+        <v>0.314115743149074</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.581041603722824</v>
+        <v>3.650875810708698</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.001908570269279</v>
+        <v>0.6045111744801943</v>
       </c>
       <c r="C3">
-        <v>0.1458921542768259</v>
+        <v>0.2477725838488105</v>
       </c>
       <c r="D3">
-        <v>0.1278458077915445</v>
+        <v>0.2043544428690467</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6806829486767541</v>
+        <v>1.53342034805209</v>
       </c>
       <c r="G3">
-        <v>0.4099147997415145</v>
+        <v>0.8741143931177575</v>
       </c>
       <c r="H3">
-        <v>0.3725409057907783</v>
+        <v>0.9505207086488667</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09428660870485217</v>
+        <v>0.2384331266282729</v>
       </c>
       <c r="K3">
-        <v>0.813828716322945</v>
+        <v>0.2784063110692045</v>
       </c>
       <c r="L3">
-        <v>0.2233215493611596</v>
+        <v>0.3083792704219377</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.595022547370661</v>
+        <v>3.680035733597322</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.910553640019117</v>
+        <v>0.5780667066601382</v>
       </c>
       <c r="C4">
-        <v>0.1472082806600596</v>
+        <v>0.2484695759305922</v>
       </c>
       <c r="D4">
-        <v>0.1200211599672798</v>
+        <v>0.2028091948180588</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6783926779676932</v>
+        <v>1.539547951579763</v>
       </c>
       <c r="G4">
-        <v>0.4111189567263835</v>
+        <v>0.8788168398963236</v>
       </c>
       <c r="H4">
-        <v>0.3769745226371626</v>
+        <v>0.9552189054591196</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09477716422780347</v>
+        <v>0.2394481850584995</v>
       </c>
       <c r="K4">
-        <v>0.74164707354862</v>
+        <v>0.2557179949669575</v>
       </c>
       <c r="L4">
-        <v>0.2078018586993124</v>
+        <v>0.3049705646521659</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.606623854214533</v>
+        <v>3.699673993939967</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8733516149666514</v>
+        <v>0.5673222571210772</v>
       </c>
       <c r="C5">
-        <v>0.1477668693539869</v>
+        <v>0.2487665419038478</v>
       </c>
       <c r="D5">
-        <v>0.1168543956391659</v>
+        <v>0.2021981087480285</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.677745203815725</v>
+        <v>1.542222435157441</v>
       </c>
       <c r="G5">
-        <v>0.4118241640994</v>
+        <v>0.8808527443470595</v>
       </c>
       <c r="H5">
-        <v>0.3789156711337966</v>
+        <v>0.9572217881590674</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09500901932117145</v>
+        <v>0.2398837555892932</v>
       </c>
       <c r="K5">
-        <v>0.7122119622178218</v>
+        <v>0.2464625982988338</v>
       </c>
       <c r="L5">
-        <v>0.2015130786360757</v>
+        <v>0.3036101967021665</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.612085282931446</v>
+        <v>3.708112994470625</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8671755192969215</v>
+        <v>0.5655401003307361</v>
       </c>
       <c r="C6">
-        <v>0.147860960819699</v>
+        <v>0.2488166352291792</v>
       </c>
       <c r="D6">
-        <v>0.1163298410052107</v>
+        <v>0.2020977656136225</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6776546732159048</v>
+        <v>1.542677252855185</v>
       </c>
       <c r="G6">
-        <v>0.4119539856658392</v>
+        <v>0.8811980300644677</v>
       </c>
       <c r="H6">
-        <v>0.3792460144942211</v>
+        <v>0.9575597029188714</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09504942511567194</v>
+        <v>0.2399574068979042</v>
       </c>
       <c r="K6">
-        <v>0.7073228503549558</v>
+        <v>0.2449251783947233</v>
       </c>
       <c r="L6">
-        <v>0.2004709079054265</v>
+        <v>0.3033860473154348</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.613035762586264</v>
+        <v>3.709540639390639</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9100518289863828</v>
+        <v>0.5779216730240933</v>
       </c>
       <c r="C7">
-        <v>0.1472157241386611</v>
+        <v>0.2484735284932853</v>
       </c>
       <c r="D7">
-        <v>0.1199783650291124</v>
+        <v>0.2028008779926154</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6783828013597457</v>
+        <v>1.539583301942045</v>
       </c>
       <c r="G7">
-        <v>0.4111276094579921</v>
+        <v>0.8788438124538374</v>
       </c>
       <c r="H7">
-        <v>0.3770001619959658</v>
+        <v>0.9552455592702316</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09478016279800983</v>
+        <v>0.2394539704976992</v>
       </c>
       <c r="K7">
-        <v>0.7412501932772102</v>
+        <v>0.2555932119680762</v>
       </c>
       <c r="L7">
-        <v>0.2077169051945447</v>
+        <v>0.3049521018011063</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.606694569858746</v>
+        <v>3.699786038582289</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.09950992476854</v>
+        <v>0.6328364895445304</v>
       </c>
       <c r="C8">
-        <v>0.1445643964431014</v>
+        <v>0.2470729463743595</v>
       </c>
       <c r="D8">
-        <v>0.1362735742964247</v>
+        <v>0.206066715681672</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6841316479388908</v>
+        <v>1.527487647918115</v>
       </c>
       <c r="G8">
-        <v>0.4093860460331769</v>
+        <v>0.86950526691286</v>
       </c>
       <c r="H8">
-        <v>0.3682792487023221</v>
+        <v>0.9458089600167128</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09387464204187168</v>
+        <v>0.2374248279031583</v>
       </c>
       <c r="K8">
-        <v>0.8908026763824921</v>
+        <v>0.302581815806974</v>
       </c>
       <c r="L8">
-        <v>0.2400116842832745</v>
+        <v>0.3121143439375516</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.585220787949339</v>
+        <v>3.660570411141052</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.472685873672447</v>
+        <v>0.7414718124299498</v>
       </c>
       <c r="C9">
-        <v>0.140084167726549</v>
+        <v>0.2447319221622593</v>
       </c>
       <c r="D9">
-        <v>0.1690170938268807</v>
+        <v>0.2130513374722085</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7052048647223899</v>
+        <v>1.509354453083311</v>
       </c>
       <c r="G9">
-        <v>0.4133851932824939</v>
+        <v>0.8549655583007763</v>
       </c>
       <c r="H9">
-        <v>0.3556990246331466</v>
+        <v>0.9300839223771504</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09317143901908054</v>
+        <v>0.2341353049076282</v>
       </c>
       <c r="K9">
-        <v>1.183996603268923</v>
+        <v>0.3943754348819652</v>
       </c>
       <c r="L9">
-        <v>0.3046780767079298</v>
+        <v>0.3270538930680118</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.568222238474661</v>
+        <v>3.597417061160925</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.748640978122836</v>
+        <v>0.8218293050953775</v>
       </c>
       <c r="C10">
-        <v>0.1372454999696942</v>
+        <v>0.2432570943669319</v>
       </c>
       <c r="D10">
-        <v>0.1936450398005434</v>
+        <v>0.2185321790585704</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7273469186974424</v>
+        <v>1.499428974112149</v>
       </c>
       <c r="G10">
-        <v>0.4214091108953397</v>
+        <v>0.8465829913451302</v>
       </c>
       <c r="H10">
-        <v>0.349457804035751</v>
+        <v>0.9202199838543805</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09336496412462836</v>
+        <v>0.2321371927716065</v>
       </c>
       <c r="K10">
-        <v>1.399895814377373</v>
+        <v>0.4615768292617588</v>
       </c>
       <c r="L10">
-        <v>0.3531966484495825</v>
+        <v>0.3385682376139556</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.572755573067923</v>
+        <v>3.559387409143483</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.874752962424765</v>
+        <v>0.8584971369661787</v>
       </c>
       <c r="C11">
-        <v>0.1360559139430606</v>
+        <v>0.242638946453539</v>
       </c>
       <c r="D11">
-        <v>0.204994313819455</v>
+        <v>0.2211004704087713</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7390267974609301</v>
+        <v>1.495649478131575</v>
       </c>
       <c r="G11">
-        <v>0.4262965609836584</v>
+        <v>0.8432688525889631</v>
       </c>
       <c r="H11">
-        <v>0.3473278723728015</v>
+        <v>0.9160982558374968</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09362040630479385</v>
+        <v>0.2313187587549628</v>
       </c>
       <c r="K11">
-        <v>1.49834932702268</v>
+        <v>0.4920915202359311</v>
       </c>
       <c r="L11">
-        <v>0.3755337073429814</v>
+        <v>0.3439218897598124</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.578916606925048</v>
+        <v>3.54390150787097</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.922607495767352</v>
+        <v>0.8723977601972877</v>
       </c>
       <c r="C12">
-        <v>0.1356203876793671</v>
+        <v>0.2424124221233228</v>
       </c>
       <c r="D12">
-        <v>0.2093148025572162</v>
+        <v>0.2220837126182573</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.743695020349854</v>
+        <v>1.494323912425678</v>
       </c>
       <c r="G12">
-        <v>0.4283370267668687</v>
+        <v>0.8420856408522752</v>
       </c>
       <c r="H12">
-        <v>0.3466284454614197</v>
+        <v>0.9145899234722776</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0937423762438101</v>
+        <v>0.23102182657966</v>
       </c>
       <c r="K12">
-        <v>1.535676704353278</v>
+        <v>0.5036380870089658</v>
       </c>
       <c r="L12">
-        <v>0.3840343451359161</v>
+        <v>0.3459656713590675</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.581874798468533</v>
+        <v>3.538298049654401</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.912296520165768</v>
+        <v>0.8694033457773003</v>
       </c>
       <c r="C13">
-        <v>0.1357135162117444</v>
+        <v>0.2424608726877864</v>
       </c>
       <c r="D13">
-        <v>0.208383265926642</v>
+        <v>0.2218714801940251</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7426784899866732</v>
+        <v>1.494604700237304</v>
       </c>
       <c r="G13">
-        <v>0.4278889440261651</v>
+        <v>0.842337274117483</v>
       </c>
       <c r="H13">
-        <v>0.3467742294435965</v>
+        <v>0.9149124370576089</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09371496597290374</v>
+        <v>0.2310851988583948</v>
       </c>
       <c r="K13">
-        <v>1.527635398662596</v>
+        <v>0.5011517245447976</v>
       </c>
       <c r="L13">
-        <v>0.3822016449663437</v>
+        <v>0.3455247766436003</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.581209302702803</v>
+        <v>3.539493261303932</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.878687913999016</v>
+        <v>0.8596404479547459</v>
       </c>
       <c r="C14">
-        <v>0.1360197815685069</v>
+        <v>0.2426201589302508</v>
       </c>
       <c r="D14">
-        <v>0.2053492961684356</v>
+        <v>0.2211811487636339</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7394058543906681</v>
+        <v>1.495538306508685</v>
       </c>
       <c r="G14">
-        <v>0.4264605595616757</v>
+        <v>0.8431700704234402</v>
       </c>
       <c r="H14">
-        <v>0.3472681523908676</v>
+        <v>0.9159731131248066</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09362992807510651</v>
+        <v>0.2312940697508346</v>
       </c>
       <c r="K14">
-        <v>1.501419303687186</v>
+        <v>0.4930416412556724</v>
       </c>
       <c r="L14">
-        <v>0.3762321935676312</v>
+        <v>0.344089703800762</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.579147237704575</v>
+        <v>3.543435283598967</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.858114997966993</v>
+        <v>0.8536623581187825</v>
       </c>
       <c r="C15">
-        <v>0.1362093337459029</v>
+        <v>0.2427187092825207</v>
       </c>
       <c r="D15">
-        <v>0.2034939216054283</v>
+        <v>0.2207596894060799</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7374336521224265</v>
+        <v>1.496123921589422</v>
       </c>
       <c r="G15">
-        <v>0.4256106983590229</v>
+        <v>0.8436895303375707</v>
       </c>
       <c r="H15">
-        <v>0.3475848044207623</v>
+        <v>0.9166296397286544</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09358116265726224</v>
+        <v>0.2314237002704544</v>
       </c>
       <c r="K15">
-        <v>1.485367400756473</v>
+        <v>0.4880728295084111</v>
       </c>
       <c r="L15">
-        <v>0.3725813311361748</v>
+        <v>0.3432128200311979</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.577966673886863</v>
+        <v>3.545883835152836</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.74041220388861</v>
+        <v>0.8194351681294165</v>
       </c>
       <c r="C16">
-        <v>0.1373253159112195</v>
+        <v>0.2432985507018657</v>
       </c>
       <c r="D16">
-        <v>0.1929064240130316</v>
+        <v>0.2183658361432776</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7266171470101881</v>
+        <v>1.499690764454172</v>
       </c>
       <c r="G16">
-        <v>0.4211155923459557</v>
+        <v>0.8468096224642352</v>
       </c>
       <c r="H16">
-        <v>0.3496117042149791</v>
+        <v>0.9204966956904599</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09335173718341494</v>
+        <v>0.2321924986377226</v>
       </c>
       <c r="K16">
-        <v>1.393467367934591</v>
+        <v>0.4595814449714339</v>
       </c>
       <c r="L16">
-        <v>0.3517425411047839</v>
+        <v>0.3382206778398142</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.572438418477191</v>
+        <v>3.560435939878602</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.668364217275666</v>
+        <v>0.7984661396054378</v>
       </c>
       <c r="C17">
-        <v>0.1380362104806352</v>
+        <v>0.2436677546755845</v>
       </c>
       <c r="D17">
-        <v>0.1864499412606051</v>
+        <v>0.2169164280901157</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7204030670890376</v>
+        <v>1.502067227120094</v>
       </c>
       <c r="G17">
-        <v>0.4186830483120474</v>
+        <v>0.848851542314712</v>
       </c>
       <c r="H17">
-        <v>0.351040354164418</v>
+        <v>0.9229625530106418</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09325467744024607</v>
+        <v>0.2326872971878906</v>
       </c>
       <c r="K17">
-        <v>1.337158470090003</v>
+        <v>0.4420881779009562</v>
       </c>
       <c r="L17">
-        <v>0.339029350250712</v>
+        <v>0.3351876773707829</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.570121556765358</v>
+        <v>3.569827694890876</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.626977596373564</v>
+        <v>0.7864159810660851</v>
       </c>
       <c r="C18">
-        <v>0.1384546544485801</v>
+        <v>0.2438850788064499</v>
       </c>
       <c r="D18">
-        <v>0.1827499625577218</v>
+        <v>0.2160898351613127</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7169792858558353</v>
+        <v>1.503503357172008</v>
       </c>
       <c r="G18">
-        <v>0.4173996305526941</v>
+        <v>0.850072981049756</v>
       </c>
       <c r="H18">
-        <v>0.3519285055647501</v>
+        <v>0.924415248893979</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09321453451075712</v>
+        <v>0.2329804136414424</v>
       </c>
       <c r="K18">
-        <v>1.304792976209001</v>
+        <v>0.4320213251554605</v>
       </c>
       <c r="L18">
-        <v>0.3317418237146796</v>
+        <v>0.3334540779404023</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.569172491043432</v>
+        <v>3.575400332076413</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.612973528332049</v>
+        <v>0.7823378651380608</v>
       </c>
       <c r="C19">
-        <v>0.1385979643856601</v>
+        <v>0.243959515214506</v>
       </c>
       <c r="D19">
-        <v>0.1814994998575656</v>
+        <v>0.2158111821168092</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.715845464606879</v>
+        <v>1.504001504378977</v>
       </c>
       <c r="G19">
-        <v>0.4169846149877827</v>
+        <v>0.8504946079634408</v>
       </c>
       <c r="H19">
-        <v>0.3522404761149858</v>
+        <v>0.9249130171692812</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09320360199159339</v>
+        <v>0.2330811221673912</v>
       </c>
       <c r="K19">
-        <v>1.293838023641484</v>
+        <v>0.4286119919194675</v>
       </c>
       <c r="L19">
-        <v>0.329278531915719</v>
+        <v>0.3328689886239715</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.568915972208032</v>
+        <v>3.577316461422257</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.676028205349979</v>
+        <v>0.8006972305708473</v>
       </c>
       <c r="C20">
-        <v>0.1379595432880194</v>
+        <v>0.2436279383683981</v>
       </c>
       <c r="D20">
-        <v>0.1871358227289761</v>
+        <v>0.2170699892622707</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.721048901456534</v>
+        <v>1.501807082337194</v>
       </c>
       <c r="G20">
-        <v>0.4189299375322193</v>
+        <v>0.8486293141155201</v>
       </c>
       <c r="H20">
-        <v>0.3508813604556238</v>
+        <v>0.9226964985395583</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09326337822621866</v>
+        <v>0.2326337432863106</v>
       </c>
       <c r="K20">
-        <v>1.343150307452078</v>
+        <v>0.4439509080445418</v>
       </c>
       <c r="L20">
-        <v>0.3403801008415144</v>
+        <v>0.335509418346092</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.57032824465972</v>
+        <v>3.568810255696349</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.888556770150274</v>
+        <v>0.8625076394067435</v>
       </c>
       <c r="C21">
-        <v>0.1359294158355695</v>
+        <v>0.2425731679143155</v>
       </c>
       <c r="D21">
-        <v>0.2062398140248973</v>
+        <v>0.2213836266445384</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7403603319900043</v>
+        <v>1.495261217584542</v>
       </c>
       <c r="G21">
-        <v>0.4268748650335823</v>
+        <v>0.8429235098098076</v>
       </c>
       <c r="H21">
-        <v>0.3471201251046097</v>
+        <v>0.9156601432204496</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09365421112770633</v>
+        <v>0.231232366935096</v>
       </c>
       <c r="K21">
-        <v>1.509118291506496</v>
+        <v>0.4954240105298595</v>
       </c>
       <c r="L21">
-        <v>0.3779843920775363</v>
+        <v>0.3445107738568538</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.579735654122487</v>
+        <v>3.542270341374518</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.028039503885907</v>
+        <v>0.9029931385289274</v>
       </c>
       <c r="C22">
-        <v>0.1346898749280712</v>
+        <v>0.2419278355222261</v>
       </c>
       <c r="D22">
-        <v>0.2188589767095692</v>
+        <v>0.2242650765027321</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7544185136780328</v>
+        <v>1.491598845678958</v>
       </c>
       <c r="G22">
-        <v>0.4331790149227714</v>
+        <v>0.8396128319097755</v>
       </c>
       <c r="H22">
-        <v>0.3452890118900882</v>
+        <v>0.9113673190542642</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09405735093471179</v>
+        <v>0.2303921964379434</v>
       </c>
       <c r="K22">
-        <v>1.617856755469916</v>
+        <v>0.5290137180011243</v>
       </c>
       <c r="L22">
-        <v>0.4028082127719586</v>
+        <v>0.3504895990608503</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.58954595917865</v>
+        <v>3.526444566986953</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.953536206792705</v>
+        <v>0.8813774385438933</v>
       </c>
       <c r="C23">
-        <v>0.1353433479534161</v>
+        <v>0.2422682440354222</v>
       </c>
       <c r="D23">
-        <v>0.2121110489618303</v>
+        <v>0.2227215317060001</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7467789954233197</v>
+        <v>1.493497229220601</v>
       </c>
       <c r="G23">
-        <v>0.4297085712067883</v>
+        <v>0.8413415180380639</v>
       </c>
       <c r="H23">
-        <v>0.3462071488258971</v>
+        <v>0.9136305191493648</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09382826836037239</v>
+        <v>0.23083369210255</v>
       </c>
       <c r="K23">
-        <v>1.559792666587526</v>
+        <v>0.5110911490860985</v>
       </c>
       <c r="L23">
-        <v>0.3895353055999493</v>
+        <v>0.3472898672665394</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.583962542327754</v>
+        <v>3.534752081273609</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.672563209332708</v>
+        <v>0.7996885380324272</v>
       </c>
       <c r="C24">
-        <v>0.137994174207698</v>
+        <v>0.2436459235459694</v>
       </c>
       <c r="D24">
-        <v>0.1868256986626875</v>
+        <v>0.2170005434070674</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7207564573963054</v>
+        <v>1.501924476143898</v>
       </c>
       <c r="G24">
-        <v>0.418817961335705</v>
+        <v>0.8487296354891143</v>
       </c>
       <c r="H24">
-        <v>0.3509530338250144</v>
+        <v>0.9228166726078939</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09325939591705179</v>
+        <v>0.2326579280588525</v>
       </c>
       <c r="K24">
-        <v>1.340441376022653</v>
+        <v>0.4431087980352686</v>
       </c>
       <c r="L24">
-        <v>0.3397693599575007</v>
+        <v>0.3353639277385412</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.570233611001527</v>
+        <v>3.569269700465185</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.371478060574475</v>
+        <v>0.7119852163426117</v>
       </c>
       <c r="C25">
-        <v>0.1412177560481638</v>
+        <v>0.2453220356026407</v>
       </c>
       <c r="D25">
-        <v>0.1600656325648657</v>
+        <v>0.2111001541950088</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.698386402788131</v>
+        <v>1.513662794567047</v>
       </c>
       <c r="G25">
-        <v>0.4114530678446755</v>
+        <v>0.8584950383579297</v>
       </c>
       <c r="H25">
-        <v>0.3585938014341039</v>
+        <v>0.9340409107028975</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09324122294473014</v>
+        <v>0.2349515565776237</v>
       </c>
       <c r="K25">
-        <v>1.104634928079747</v>
+        <v>0.3695830353864551</v>
       </c>
       <c r="L25">
-        <v>0.2870217392608509</v>
+        <v>0.3229173201078055</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.569961371465212</v>
+        <v>3.613031124337184</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_250/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_250/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.647781071271595</v>
+        <v>1.150928057813786</v>
       </c>
       <c r="C2">
-        <v>0.2467209802383792</v>
+        <v>0.1438941665169189</v>
       </c>
       <c r="D2">
-        <v>0.2069910366683843</v>
+        <v>0.1407389478679306</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.524588704530693</v>
+        <v>0.6863283588074509</v>
       </c>
       <c r="G2">
-        <v>0.8672303508589039</v>
+        <v>0.4093960257733613</v>
       </c>
       <c r="H2">
-        <v>0.9434404649970816</v>
+        <v>0.3662136925915149</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2369217653543636</v>
+        <v>0.09369988844310129</v>
       </c>
       <c r="K2">
-        <v>0.3152905831755959</v>
+        <v>0.9312999374112678</v>
       </c>
       <c r="L2">
-        <v>0.314115743149074</v>
+        <v>0.2488456055561414</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.650875810708698</v>
+        <v>1.581041603722724</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6045111744801943</v>
+        <v>1.001908570269308</v>
       </c>
       <c r="C3">
-        <v>0.2477725838488105</v>
+        <v>0.1458921542765772</v>
       </c>
       <c r="D3">
-        <v>0.2043544428690467</v>
+        <v>0.127845807791175</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.53342034805209</v>
+        <v>0.6806829486767541</v>
       </c>
       <c r="G3">
-        <v>0.8741143931177575</v>
+        <v>0.4099147997415074</v>
       </c>
       <c r="H3">
-        <v>0.9505207086488667</v>
+        <v>0.3725409057907711</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2384331266282729</v>
+        <v>0.09428660870485928</v>
       </c>
       <c r="K3">
-        <v>0.2784063110692045</v>
+        <v>0.813828716322945</v>
       </c>
       <c r="L3">
-        <v>0.3083792704219377</v>
+        <v>0.2233215493610174</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.680035733597322</v>
+        <v>1.595022547370647</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5780667066601382</v>
+        <v>0.910553640019117</v>
       </c>
       <c r="C4">
-        <v>0.2484695759305922</v>
+        <v>0.1472082806601236</v>
       </c>
       <c r="D4">
-        <v>0.2028091948180588</v>
+        <v>0.1200211599673793</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.539547951579763</v>
+        <v>0.6783926779676932</v>
       </c>
       <c r="G4">
-        <v>0.8788168398963236</v>
+        <v>0.4111189567264475</v>
       </c>
       <c r="H4">
-        <v>0.9552189054591196</v>
+        <v>0.3769745226372692</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2394481850584995</v>
+        <v>0.09477716422772531</v>
       </c>
       <c r="K4">
-        <v>0.2557179949669575</v>
+        <v>0.7416470735486342</v>
       </c>
       <c r="L4">
-        <v>0.3049705646521659</v>
+        <v>0.2078018586992272</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.699673993939967</v>
+        <v>1.606623854214533</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5673222571210772</v>
+        <v>0.8733516149665661</v>
       </c>
       <c r="C5">
-        <v>0.2487665419038478</v>
+        <v>0.147766869354367</v>
       </c>
       <c r="D5">
-        <v>0.2021981087480285</v>
+        <v>0.1168543956391517</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.542222435157441</v>
+        <v>0.6777452038157179</v>
       </c>
       <c r="G5">
-        <v>0.8808527443470595</v>
+        <v>0.4118241640994427</v>
       </c>
       <c r="H5">
-        <v>0.9572217881590674</v>
+        <v>0.3789156711336688</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2398837555892932</v>
+        <v>0.09500901932113592</v>
       </c>
       <c r="K5">
-        <v>0.2464625982988338</v>
+        <v>0.7122119622177649</v>
       </c>
       <c r="L5">
-        <v>0.3036101967021665</v>
+        <v>0.2015130786361965</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.708112994470625</v>
+        <v>1.612085282931361</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5655401003307361</v>
+        <v>0.8671755192969215</v>
       </c>
       <c r="C6">
-        <v>0.2488166352291792</v>
+        <v>0.1478609608195676</v>
       </c>
       <c r="D6">
-        <v>0.2020977656136225</v>
+        <v>0.1163298410050118</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.542677252855185</v>
+        <v>0.6776546732158906</v>
       </c>
       <c r="G6">
-        <v>0.8811980300644677</v>
+        <v>0.4119539856658392</v>
       </c>
       <c r="H6">
-        <v>0.9575597029188714</v>
+        <v>0.3792460144942282</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2399574068979042</v>
+        <v>0.09504942511555114</v>
       </c>
       <c r="K6">
-        <v>0.2449251783947233</v>
+        <v>0.7073228503550553</v>
       </c>
       <c r="L6">
-        <v>0.3033860473154348</v>
+        <v>0.2004709079055047</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.709540639390639</v>
+        <v>1.613035762586264</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5779216730240933</v>
+        <v>0.9100518289863544</v>
       </c>
       <c r="C7">
-        <v>0.2484735284932853</v>
+        <v>0.1472157241386647</v>
       </c>
       <c r="D7">
-        <v>0.2028008779926154</v>
+        <v>0.119978365028885</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.539583301942045</v>
+        <v>0.6783828013597173</v>
       </c>
       <c r="G7">
-        <v>0.8788438124538374</v>
+        <v>0.411127609457985</v>
       </c>
       <c r="H7">
-        <v>0.9552455592702316</v>
+        <v>0.3770001619959658</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2394539704976992</v>
+        <v>0.0947801627979139</v>
       </c>
       <c r="K7">
-        <v>0.2555932119680762</v>
+        <v>0.7412501932770255</v>
       </c>
       <c r="L7">
-        <v>0.3049521018011063</v>
+        <v>0.2077169051945305</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.699786038582289</v>
+        <v>1.606694569858675</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6328364895445304</v>
+        <v>1.099509924768768</v>
       </c>
       <c r="C8">
-        <v>0.2470729463743595</v>
+        <v>0.144564396443112</v>
       </c>
       <c r="D8">
-        <v>0.206066715681672</v>
+        <v>0.1362735742961547</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.527487647918115</v>
+        <v>0.6841316479388908</v>
       </c>
       <c r="G8">
-        <v>0.86950526691286</v>
+        <v>0.4093860460333048</v>
       </c>
       <c r="H8">
-        <v>0.9458089600167128</v>
+        <v>0.3682792487023221</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2374248279031583</v>
+        <v>0.09387464204188234</v>
       </c>
       <c r="K8">
-        <v>0.302581815806974</v>
+        <v>0.8908026763825205</v>
       </c>
       <c r="L8">
-        <v>0.3121143439375516</v>
+        <v>0.2400116842832745</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.660570411141052</v>
+        <v>1.585220787949368</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7414718124299498</v>
+        <v>1.472685873672532</v>
       </c>
       <c r="C9">
-        <v>0.2447319221622593</v>
+        <v>0.140084167726549</v>
       </c>
       <c r="D9">
-        <v>0.2130513374722085</v>
+        <v>0.169017093826767</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.509354453083311</v>
+        <v>0.7052048647223685</v>
       </c>
       <c r="G9">
-        <v>0.8549655583007763</v>
+        <v>0.41338519328243</v>
       </c>
       <c r="H9">
-        <v>0.9300839223771504</v>
+        <v>0.35569902463304</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2341353049076282</v>
+        <v>0.09317143901913028</v>
       </c>
       <c r="K9">
-        <v>0.3943754348819652</v>
+        <v>1.183996603268781</v>
       </c>
       <c r="L9">
-        <v>0.3270538930680118</v>
+        <v>0.3046780767078587</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.597417061160925</v>
+        <v>1.568222238474647</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8218293050953775</v>
+        <v>1.748640978122836</v>
       </c>
       <c r="C10">
-        <v>0.2432570943669319</v>
+        <v>0.1372454999694526</v>
       </c>
       <c r="D10">
-        <v>0.2185321790585704</v>
+        <v>0.1936450398006002</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.499428974112149</v>
+        <v>0.7273469186974211</v>
       </c>
       <c r="G10">
-        <v>0.8465829913451302</v>
+        <v>0.4214091108952829</v>
       </c>
       <c r="H10">
-        <v>0.9202199838543805</v>
+        <v>0.3494578040358647</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2321371927716065</v>
+        <v>0.09336496412451822</v>
       </c>
       <c r="K10">
-        <v>0.4615768292617588</v>
+        <v>1.399895814377402</v>
       </c>
       <c r="L10">
-        <v>0.3385682376139556</v>
+        <v>0.3531966484495541</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.559387409143483</v>
+        <v>1.572755573067894</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8584971369661787</v>
+        <v>1.874752962424708</v>
       </c>
       <c r="C11">
-        <v>0.242638946453539</v>
+        <v>0.1360559139436859</v>
       </c>
       <c r="D11">
-        <v>0.2211004704087713</v>
+        <v>0.2049943138194124</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.495649478131575</v>
+        <v>0.7390267974609088</v>
       </c>
       <c r="G11">
-        <v>0.8432688525889631</v>
+        <v>0.4262965609836726</v>
       </c>
       <c r="H11">
-        <v>0.9160982558374968</v>
+        <v>0.3473278723726878</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2313187587549628</v>
+        <v>0.09362040630483293</v>
       </c>
       <c r="K11">
-        <v>0.4920915202359311</v>
+        <v>1.49834932702268</v>
       </c>
       <c r="L11">
-        <v>0.3439218897598124</v>
+        <v>0.3755337073430098</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.54390150787097</v>
+        <v>1.57891660692502</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8723977601972877</v>
+        <v>1.922607495767352</v>
       </c>
       <c r="C12">
-        <v>0.2424124221233228</v>
+        <v>0.1356203876794524</v>
       </c>
       <c r="D12">
-        <v>0.2220837126182573</v>
+        <v>0.2093148025572305</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.494323912425678</v>
+        <v>0.743695020349854</v>
       </c>
       <c r="G12">
-        <v>0.8420856408522752</v>
+        <v>0.4283370267668829</v>
       </c>
       <c r="H12">
-        <v>0.9145899234722776</v>
+        <v>0.3466284454614055</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.23102182657966</v>
+        <v>0.09374237624391668</v>
       </c>
       <c r="K12">
-        <v>0.5036380870089658</v>
+        <v>1.535676704353193</v>
       </c>
       <c r="L12">
-        <v>0.3459656713590675</v>
+        <v>0.3840343451358876</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.538298049654401</v>
+        <v>1.581874798468476</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8694033457773003</v>
+        <v>1.912296520165853</v>
       </c>
       <c r="C13">
-        <v>0.2424608726877864</v>
+        <v>0.1357135162118155</v>
       </c>
       <c r="D13">
-        <v>0.2218714801940251</v>
+        <v>0.2083832659265141</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.494604700237304</v>
+        <v>0.7426784899866945</v>
       </c>
       <c r="G13">
-        <v>0.842337274117483</v>
+        <v>0.4278889440260514</v>
       </c>
       <c r="H13">
-        <v>0.9149124370576089</v>
+        <v>0.3467742294435965</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2310851988583948</v>
+        <v>0.09371496597289308</v>
       </c>
       <c r="K13">
-        <v>0.5011517245447976</v>
+        <v>1.527635398662653</v>
       </c>
       <c r="L13">
-        <v>0.3455247766436003</v>
+        <v>0.3822016449663721</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.539493261303932</v>
+        <v>1.581209302702888</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8596404479547459</v>
+        <v>1.878687913999073</v>
       </c>
       <c r="C14">
-        <v>0.2426201589302508</v>
+        <v>0.1360197815682582</v>
       </c>
       <c r="D14">
-        <v>0.2211811487636339</v>
+        <v>0.2053492961683929</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.495538306508685</v>
+        <v>0.7394058543906965</v>
       </c>
       <c r="G14">
-        <v>0.8431700704234402</v>
+        <v>0.4264605595616899</v>
       </c>
       <c r="H14">
-        <v>0.9159731131248066</v>
+        <v>0.3472681523908818</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2312940697508346</v>
+        <v>0.09362992807508874</v>
       </c>
       <c r="K14">
-        <v>0.4930416412556724</v>
+        <v>1.501419303687271</v>
       </c>
       <c r="L14">
-        <v>0.344089703800762</v>
+        <v>0.3762321935676738</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.543435283598967</v>
+        <v>1.579147237704632</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8536623581187825</v>
+        <v>1.858114997966993</v>
       </c>
       <c r="C15">
-        <v>0.2427187092825207</v>
+        <v>0.1362093337458887</v>
       </c>
       <c r="D15">
-        <v>0.2207596894060799</v>
+        <v>0.203493921605201</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.496123921589422</v>
+        <v>0.7374336521224194</v>
       </c>
       <c r="G15">
-        <v>0.8436895303375707</v>
+        <v>0.4256106983590371</v>
       </c>
       <c r="H15">
-        <v>0.9166296397286544</v>
+        <v>0.3475848044206487</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2314237002704544</v>
+        <v>0.09358116265737237</v>
       </c>
       <c r="K15">
-        <v>0.4880728295084111</v>
+        <v>1.485367400756388</v>
       </c>
       <c r="L15">
-        <v>0.3432128200311979</v>
+        <v>0.3725813311361605</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.545883835152836</v>
+        <v>1.577966673886749</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8194351681294165</v>
+        <v>1.740412203888496</v>
       </c>
       <c r="C16">
-        <v>0.2432985507018657</v>
+        <v>0.1373253159112124</v>
       </c>
       <c r="D16">
-        <v>0.2183658361432776</v>
+        <v>0.1929064240132021</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.499690764454172</v>
+        <v>0.726617147010181</v>
       </c>
       <c r="G16">
-        <v>0.8468096224642352</v>
+        <v>0.42111559234597</v>
       </c>
       <c r="H16">
-        <v>0.9204966956904599</v>
+        <v>0.3496117042150075</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2321924986377226</v>
+        <v>0.09335173718351442</v>
       </c>
       <c r="K16">
-        <v>0.4595814449714339</v>
+        <v>1.393467367934562</v>
       </c>
       <c r="L16">
-        <v>0.3382206778398142</v>
+        <v>0.3517425411047981</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.560435939878602</v>
+        <v>1.572438418477191</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7984661396054378</v>
+        <v>1.668364217275837</v>
       </c>
       <c r="C17">
-        <v>0.2436677546755845</v>
+        <v>0.1380362104806423</v>
       </c>
       <c r="D17">
-        <v>0.2169164280901157</v>
+        <v>0.1864499412605483</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.502067227120094</v>
+        <v>0.7204030670890091</v>
       </c>
       <c r="G17">
-        <v>0.848851542314712</v>
+        <v>0.4186830483119621</v>
       </c>
       <c r="H17">
-        <v>0.9229625530106418</v>
+        <v>0.351040354164418</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2326872971878906</v>
+        <v>0.09325467744014659</v>
       </c>
       <c r="K17">
-        <v>0.4420881779009562</v>
+        <v>1.337158470090202</v>
       </c>
       <c r="L17">
-        <v>0.3351876773707829</v>
+        <v>0.3390293502507404</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.569827694890876</v>
+        <v>1.570121556765372</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7864159810660851</v>
+        <v>1.626977596373678</v>
       </c>
       <c r="C18">
-        <v>0.2438850788064499</v>
+        <v>0.1384546544486582</v>
       </c>
       <c r="D18">
-        <v>0.2160898351613127</v>
+        <v>0.1827499625578497</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.503503357172008</v>
+        <v>0.7169792858558139</v>
       </c>
       <c r="G18">
-        <v>0.850072981049756</v>
+        <v>0.4173996305526941</v>
       </c>
       <c r="H18">
-        <v>0.924415248893979</v>
+        <v>0.3519285055646364</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2329804136414424</v>
+        <v>0.09321453451073936</v>
       </c>
       <c r="K18">
-        <v>0.4320213251554605</v>
+        <v>1.304792976209114</v>
       </c>
       <c r="L18">
-        <v>0.3334540779404023</v>
+        <v>0.3317418237146796</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.575400332076413</v>
+        <v>1.569172491043417</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7823378651380608</v>
+        <v>1.612973528332134</v>
       </c>
       <c r="C19">
-        <v>0.243959515214506</v>
+        <v>0.1385979643856601</v>
       </c>
       <c r="D19">
-        <v>0.2158111821168092</v>
+        <v>0.1814994998575372</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.504001504378977</v>
+        <v>0.7158454646068648</v>
       </c>
       <c r="G19">
-        <v>0.8504946079634408</v>
+        <v>0.4169846149877117</v>
       </c>
       <c r="H19">
-        <v>0.9249130171692812</v>
+        <v>0.3522404761149858</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2330811221673912</v>
+        <v>0.09320360199158628</v>
       </c>
       <c r="K19">
-        <v>0.4286119919194675</v>
+        <v>1.293838023641456</v>
       </c>
       <c r="L19">
-        <v>0.3328689886239715</v>
+        <v>0.3292785319157474</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.577316461422257</v>
+        <v>1.568915972208003</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8006972305708473</v>
+        <v>1.676028205350036</v>
       </c>
       <c r="C20">
-        <v>0.2436279383683981</v>
+        <v>0.1379595432879341</v>
       </c>
       <c r="D20">
-        <v>0.2170699892622707</v>
+        <v>0.1871358227291182</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.501807082337194</v>
+        <v>0.7210489014565127</v>
       </c>
       <c r="G20">
-        <v>0.8486293141155201</v>
+        <v>0.4189299375322975</v>
       </c>
       <c r="H20">
-        <v>0.9226964985395583</v>
+        <v>0.3508813604556238</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2326337432863106</v>
+        <v>0.09326337822616892</v>
       </c>
       <c r="K20">
-        <v>0.4439509080445418</v>
+        <v>1.343150307452106</v>
       </c>
       <c r="L20">
-        <v>0.335509418346092</v>
+        <v>0.3403801008415144</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.568810255696349</v>
+        <v>1.57032824465972</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8625076394067435</v>
+        <v>1.888556770150274</v>
       </c>
       <c r="C21">
-        <v>0.2425731679143155</v>
+        <v>0.13592941583574</v>
       </c>
       <c r="D21">
-        <v>0.2213836266445384</v>
+        <v>0.2062398140249684</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.495261217584542</v>
+        <v>0.7403603319900043</v>
       </c>
       <c r="G21">
-        <v>0.8429235098098076</v>
+        <v>0.4268748650335112</v>
       </c>
       <c r="H21">
-        <v>0.9156601432204496</v>
+        <v>0.3471201251046097</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.231232366935096</v>
+        <v>0.09365421112771344</v>
       </c>
       <c r="K21">
-        <v>0.4954240105298595</v>
+        <v>1.509118291506439</v>
       </c>
       <c r="L21">
-        <v>0.3445107738568538</v>
+        <v>0.3779843920775505</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.542270341374518</v>
+        <v>1.579735654122544</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9029931385289274</v>
+        <v>2.028039503886077</v>
       </c>
       <c r="C22">
-        <v>0.2419278355222261</v>
+        <v>0.1346898749278296</v>
       </c>
       <c r="D22">
-        <v>0.2242650765027321</v>
+        <v>0.2188589767096971</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.491598845678958</v>
+        <v>0.7544185136780186</v>
       </c>
       <c r="G22">
-        <v>0.8396128319097755</v>
+        <v>0.4331790149227004</v>
       </c>
       <c r="H22">
-        <v>0.9113673190542642</v>
+        <v>0.3452890118899603</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2303921964379434</v>
+        <v>0.0940573509347864</v>
       </c>
       <c r="K22">
-        <v>0.5290137180011243</v>
+        <v>1.617856755469916</v>
       </c>
       <c r="L22">
-        <v>0.3504895990608503</v>
+        <v>0.4028082127719586</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.526444566986953</v>
+        <v>1.589545959178594</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8813774385438933</v>
+        <v>1.953536206792478</v>
       </c>
       <c r="C23">
-        <v>0.2422682440354222</v>
+        <v>0.135343347952869</v>
       </c>
       <c r="D23">
-        <v>0.2227215317060001</v>
+        <v>0.2121110489616598</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.493497229220601</v>
+        <v>0.7467789954233126</v>
       </c>
       <c r="G23">
-        <v>0.8413415180380639</v>
+        <v>0.4297085712068309</v>
       </c>
       <c r="H23">
-        <v>0.9136305191493648</v>
+        <v>0.3462071488259113</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.23083369210255</v>
+        <v>0.09382826836026226</v>
       </c>
       <c r="K23">
-        <v>0.5110911490860985</v>
+        <v>1.559792666587526</v>
       </c>
       <c r="L23">
-        <v>0.3472898672665394</v>
+        <v>0.3895353055999919</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.534752081273609</v>
+        <v>1.583962542327754</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7996885380324272</v>
+        <v>1.672563209332679</v>
       </c>
       <c r="C24">
-        <v>0.2436459235459694</v>
+        <v>0.1379941742076767</v>
       </c>
       <c r="D24">
-        <v>0.2170005434070674</v>
+        <v>0.1868256986628012</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.501924476143898</v>
+        <v>0.7207564573962983</v>
       </c>
       <c r="G24">
-        <v>0.8487296354891143</v>
+        <v>0.4188179613356695</v>
       </c>
       <c r="H24">
-        <v>0.9228166726078939</v>
+        <v>0.3509530338250002</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2326579280588525</v>
+        <v>0.09325939591702692</v>
       </c>
       <c r="K24">
-        <v>0.4431087980352686</v>
+        <v>1.340441376022625</v>
       </c>
       <c r="L24">
-        <v>0.3353639277385412</v>
+        <v>0.3397693599575291</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.569269700465185</v>
+        <v>1.57023361100147</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7119852163426117</v>
+        <v>1.371478060574447</v>
       </c>
       <c r="C25">
-        <v>0.2453220356026407</v>
+        <v>0.1412177560484835</v>
       </c>
       <c r="D25">
-        <v>0.2111001541950088</v>
+        <v>0.1600656325649794</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.513662794567047</v>
+        <v>0.6983864027881381</v>
       </c>
       <c r="G25">
-        <v>0.8584950383579297</v>
+        <v>0.4114530678447537</v>
       </c>
       <c r="H25">
-        <v>0.9340409107028975</v>
+        <v>0.358593801434111</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2349515565776237</v>
+        <v>0.09324122294476211</v>
       </c>
       <c r="K25">
-        <v>0.3695830353864551</v>
+        <v>1.104634928079633</v>
       </c>
       <c r="L25">
-        <v>0.3229173201078055</v>
+        <v>0.2870217392607799</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.613031124337184</v>
+        <v>1.569961371465268</v>
       </c>
     </row>
   </sheetData>
